--- a/xlsx/_wiki_牧民_intext.xlsx
+++ b/xlsx/_wiki_牧民_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>牧民</t>
   </si>
@@ -330,12 +330,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://af.wikipedia.org/wiki/Nomade</t>
@@ -1134,7 +1128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2677,7 +2671,7 @@
         <v>132</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2700,7 +2694,7 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3482,7 +3476,7 @@
         <v>202</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3505,7 +3499,7 @@
         <v>204</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4080,29 +4074,6 @@
         <v>254</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128</v>
-      </c>
-      <c r="E129" t="s">
-        <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
-      </c>
-      <c r="G129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_牧民_intext.xlsx
+++ b/xlsx/_wiki_牧民_intext.xlsx
@@ -23,307 +23,307 @@
     <t>https://zh.wikipedia.org/zh-cn/%E7%89%A7%E6%B0%91</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
     <t>俄国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
     <t>哈萨克</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%9C%A8%E9%8C%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B4%8D%E6%9C%A8%E9%8C%AF</t>
   </si>
   <si>
     <t>纳木错</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E6%98%8E</t>
   </si>
   <si>
     <t>文明</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
     <t>工业化</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
     <t>动物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%B4%E5%8C%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%B4%E5%8C%96</t>
   </si>
   <si>
     <t>驯化</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8D%B5%E7%89%A9</t>
   </si>
   <si>
     <t>猎物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%A1%BB%E6%9B%BC%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E9%A1%BB%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
     <t>布须曼人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
   </si>
   <si>
     <t>印第安人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%9F%E8%91%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BE%B3%E6%B4%B2%E5%9C%9F%E8%91%97</t>
   </si>
   <si>
     <t>澳洲土著</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
     <t>汉族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%9F%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A5%BF%E5%9F%9F</t>
   </si>
   <si>
     <t>西域</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%92%99%E5%8F%A4</t>
   </si>
   <si>
     <t>蒙古</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E7%96%86</t>
   </si>
   <si>
     <t>新疆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%83%A1%E4%BA%BA</t>
   </si>
   <si>
     <t>胡人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%8E</t>
   </si>
   <si>
     <t>戎</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%88%E5%A5%B4</t>
   </si>
   <si>
     <t>匈奴</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E6%B0%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%88%E6%B0%8F</t>
   </si>
   <si>
     <t>月氏</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%8D%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AE%AE%E5%8D%91</t>
   </si>
   <si>
     <t>鲜卑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%83%8F%E6%A1%93</t>
   </si>
   <si>
     <t>乌桓</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%AF</t>
   </si>
   <si>
     <t>羯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%90</t>
   </si>
   <si>
     <t>氐</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8C</t>
   </si>
   <si>
     <t>羌</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E7%84%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9F%94%E7%84%B6</t>
   </si>
   <si>
     <t>柔然</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AA%81%E5%8E%A5</t>
   </si>
   <si>
     <t>突厥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%B4%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%9E%E7%B4%87</t>
   </si>
   <si>
     <t>回纥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E4%B8%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%91%E4%B8%B9</t>
   </si>
   <si>
     <t>契丹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%B3%E7%9C%9F</t>
   </si>
   <si>
     <t>女真</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%B4%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BB%A1%E6%B4%B2</t>
   </si>
   <si>
     <t>满洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%BE%E5%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%B4%E5%90%BE%E5%B0%94</t>
   </si>
   <si>
     <t>维吾尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E5%85%92%E4%BA%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9D%8E%E5%85%92%E4%BA%95</t>
   </si>
   <si>
     <t>坎儿井</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%84%E7%AD%91%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9E%84%E7%AD%91%E7%89%A9</t>
   </si>
   <si>
     <t>构筑物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%97%8F</t>
   </si>
   <si>
     <t>乌兹别克族</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9B%BE%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%99%AE%E4%BB%80%E5%9B%BE%E4%BA%BA</t>
   </si>
   <si>
     <t>普什图人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8F%B2%E7%A8%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%85%E5%8F%B2%E7%A8%BF</t>
   </si>
   <si>
     <t>清史稿</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%85%B0%E5%85%8B%E4%BA%BA</t>
   </si>
   <si>
     <t>法兰克人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%88%A9%E5%85%8B%E6%B3%95%E5%85%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%90%A8%E5%88%A9%E5%85%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
     <t>萨利克法典</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%9F%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%95%B7%E5%9F%8E</t>
   </si>
   <si>
     <t>长城</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E7%B9%BC%E5%A9%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%B6%E7%B9%BC%E5%A9%9A</t>
   </si>
   <si>
     <t>收继婚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%AB%E5%A4%9A%E5%A6%BB%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%80%E5%A4%AB%E5%A4%9A%E5%A6%BB%E5%88%B6</t>
   </si>
   <si>
     <t>一夫多妻制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AB%E5%85%84%E5%BC%9F%E5%A9%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%AB%E5%85%84%E5%BC%9F%E5%A9%9A</t>
   </si>
   <si>
     <t>夫兄弟婚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%B3%95%E5%88%B6%E5%BA%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%97%E6%B3%95%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
     <t>宗法制度</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%A2%E4%BA%BA</t>
   </si>
   <si>
     <t>汉人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%82%E5%80%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%82%E5%80%AB</t>
   </si>
   <si>
     <t>乱伦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
     <t>权威控制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
   </si>
   <si>
     <t>美国国会图书馆控制号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>整合规范文档</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
     <t>法国国家图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
     <t>国立国会图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E7%89%A7%E6%B0%91%E6%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%8A%E7%89%A7%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
